--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,24 +43,24 @@
     <t>000654</t>
   </si>
   <si>
+    <t>630011</t>
+  </si>
+  <si>
+    <t>005117</t>
+  </si>
+  <si>
+    <t>004423</t>
+  </si>
+  <si>
     <t>570006</t>
   </si>
   <si>
-    <t>630011</t>
-  </si>
-  <si>
-    <t>004423</t>
-  </si>
-  <si>
-    <t>005117</t>
+    <t>005290</t>
   </si>
   <si>
     <t>005118</t>
   </si>
   <si>
-    <t>005290</t>
-  </si>
-  <si>
     <t>009710</t>
   </si>
   <si>
@@ -64,45 +70,72 @@
     <t>华商新锐产业灵活配置混合</t>
   </si>
   <si>
+    <t>华商主题精选混合</t>
+  </si>
+  <si>
+    <t>金信价值精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>华商研究精选灵活配置混合</t>
+  </si>
+  <si>
     <t>诺德中小盘混合</t>
   </si>
   <si>
-    <t>华商主题精选混合</t>
-  </si>
-  <si>
-    <t>华商研究精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>金信价值精选灵活配置混合A</t>
+    <t>诺德新盛灵活配置混合A</t>
   </si>
   <si>
     <t>金信价值精选灵活配置混合C</t>
   </si>
   <si>
-    <t>诺德新盛灵活配置混合A</t>
-  </si>
-  <si>
     <t>诺德新盛灵活配置混合C</t>
   </si>
   <si>
+    <t>34.82</t>
+  </si>
+  <si>
+    <t>16.38</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>91.04</t>
   </si>
   <si>
     <t>84.87</t>
   </si>
   <si>
+    <t>83.86</t>
+  </si>
+  <si>
+    <t>92.56</t>
+  </si>
+  <si>
+    <t>82.61</t>
+  </si>
+  <si>
     <t>89.21</t>
   </si>
   <si>
-    <t>83.86</t>
-  </si>
-  <si>
-    <t>82.61</t>
-  </si>
-  <si>
-    <t>92.56</t>
-  </si>
-  <si>
     <t>92.22</t>
   </si>
   <si>
@@ -112,16 +145,43 @@
     <t>3.11</t>
   </si>
   <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
     <t>4.09</t>
   </si>
   <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>8.54</t>
+    <t>1.4833</t>
+  </si>
+  <si>
+    <t>0.5094</t>
+  </si>
+  <si>
+    <t>0.1793</t>
+  </si>
+  <si>
+    <t>0.1110</t>
+  </si>
+  <si>
+    <t>0.1035</t>
+  </si>
+  <si>
+    <t>0.0389</t>
+  </si>
+  <si>
+    <t>0.0061</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.0004</t>
   </si>
 </sst>
 </file>
@@ -479,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,184 +561,244 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.55</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.33</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1395,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.64</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.33</v>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.55</v>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.15</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.33</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -566,6 +583,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -773,7 +1150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1057,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1473,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
+++ b/数据整理/stocks/A股/深证主板/002930-宏川智慧.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>4.22</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.15</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.64</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.33</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.55</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -583,6 +600,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
